--- a/data/indices/NIFTY 100_losers.xlsx
+++ b/data/indices/NIFTY 100_losers.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:I32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,11 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>To Year High Profit</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
           <t>Total Year Up</t>
         </is>
       </c>
@@ -492,7 +497,7 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>1052.5</v>
+        <v>1039</v>
       </c>
       <c r="E2" t="n">
         <v>2174.1</v>
@@ -501,10 +506,13 @@
         <v>870.25</v>
       </c>
       <c r="G2" t="n">
-        <v>51.58916333195344</v>
+        <v>52.21010993054598</v>
       </c>
       <c r="H2" t="n">
-        <v>20.94225797184717</v>
+        <v>109.2492781520693</v>
+      </c>
+      <c r="I2" t="n">
+        <v>19.3909796035622</v>
       </c>
     </row>
     <row r="3">
@@ -524,7 +532,7 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>523.85</v>
+        <v>519</v>
       </c>
       <c r="E3" t="n">
         <v>895.85</v>
@@ -533,10 +541,13 @@
         <v>432</v>
       </c>
       <c r="G3" t="n">
-        <v>41.52480884076575</v>
+        <v>42.06619411731874</v>
       </c>
       <c r="H3" t="n">
-        <v>21.26157407407408</v>
+        <v>72.61078998073218</v>
+      </c>
+      <c r="I3" t="n">
+        <v>20.13888888888889</v>
       </c>
     </row>
     <row r="4">
@@ -556,7 +567,7 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>1011.5</v>
+        <v>996</v>
       </c>
       <c r="E4" t="n">
         <v>1694.5</v>
@@ -565,10 +576,13 @@
         <v>926.45</v>
       </c>
       <c r="G4" t="n">
-        <v>40.30687518442019</v>
+        <v>41.22159929182649</v>
       </c>
       <c r="H4" t="n">
-        <v>9.180204004533433</v>
+        <v>70.13052208835342</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7.507150952560848</v>
       </c>
     </row>
     <row r="5">
@@ -588,7 +602,7 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>827.4</v>
+        <v>821</v>
       </c>
       <c r="E5" t="n">
         <v>1348</v>
@@ -597,10 +611,13 @@
         <v>588</v>
       </c>
       <c r="G5" t="n">
-        <v>38.62017804154303</v>
+        <v>39.09495548961425</v>
       </c>
       <c r="H5" t="n">
-        <v>40.7142857142857</v>
+        <v>64.19001218026796</v>
+      </c>
+      <c r="I5" t="n">
+        <v>39.62585034013606</v>
       </c>
     </row>
     <row r="6">
@@ -620,7 +637,7 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>737.45</v>
+        <v>725.8</v>
       </c>
       <c r="E6" t="n">
         <v>1190</v>
@@ -629,74 +646,83 @@
         <v>545.75</v>
       </c>
       <c r="G6" t="n">
-        <v>38.02941176470588</v>
+        <v>39.00840336134455</v>
       </c>
       <c r="H6" t="n">
-        <v>35.12597343105818</v>
+        <v>63.95701295122625</v>
+      </c>
+      <c r="I6" t="n">
+        <v>32.99129638112688</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>INE053F01010</t>
+          <t>INE155A01022</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>IRFC</t>
+          <t>TATAMOTORS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Financial Institution</t>
+          <t>Passenger Cars &amp; Utility Vehicles</t>
         </is>
       </c>
       <c r="D7" t="n">
-        <v>153.82</v>
+        <v>789</v>
       </c>
       <c r="E7" t="n">
-        <v>229</v>
+        <v>1179</v>
       </c>
       <c r="F7" t="n">
-        <v>99</v>
+        <v>717.7</v>
       </c>
       <c r="G7" t="n">
-        <v>32.82969432314411</v>
+        <v>33.07888040712468</v>
       </c>
       <c r="H7" t="n">
-        <v>55.37373737373736</v>
+        <v>49.42965779467681</v>
+      </c>
+      <c r="I7" t="n">
+        <v>9.934513027727455</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>INE155A01022</t>
+          <t>INE053F01010</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TATAMOTORS</t>
+          <t>IRFC</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Passenger Cars &amp; Utility Vehicles</t>
+          <t>Financial Institution</t>
         </is>
       </c>
       <c r="D8" t="n">
-        <v>794.5</v>
+        <v>153.56</v>
       </c>
       <c r="E8" t="n">
-        <v>1179</v>
+        <v>229</v>
       </c>
       <c r="F8" t="n">
-        <v>717.7</v>
+        <v>99</v>
       </c>
       <c r="G8" t="n">
-        <v>32.61238337574215</v>
+        <v>32.94323144104803</v>
       </c>
       <c r="H8" t="n">
-        <v>10.70084993729969</v>
+        <v>49.12737692107319</v>
+      </c>
+      <c r="I8" t="n">
+        <v>55.11111111111111</v>
       </c>
     </row>
     <row r="9">
@@ -716,7 +742,7 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>4224.65</v>
+        <v>4240.05</v>
       </c>
       <c r="E9" t="n">
         <v>6246.25</v>
@@ -725,170 +751,188 @@
         <v>3929.85</v>
       </c>
       <c r="G9" t="n">
-        <v>32.36501901140685</v>
+        <v>32.11847108264959</v>
       </c>
       <c r="H9" t="n">
-        <v>7.50155858366095</v>
+        <v>47.31547977028572</v>
+      </c>
+      <c r="I9" t="n">
+        <v>7.893431046986543</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>INE021A01026</t>
+          <t>INE423A01024</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>ASIANPAINT</t>
+          <t>ADANIENT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Paints</t>
+          <t>Trading - Minerals</t>
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2348</v>
+        <v>2562</v>
       </c>
       <c r="E10" t="n">
-        <v>3401.25</v>
+        <v>3743.9</v>
       </c>
       <c r="F10" t="n">
-        <v>2256.5</v>
+        <v>2025</v>
       </c>
       <c r="G10" t="n">
-        <v>30.96655641308342</v>
+        <v>31.56868506103262</v>
       </c>
       <c r="H10" t="n">
-        <v>4.054952359849318</v>
+        <v>46.13192818110852</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26.51851851851852</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>INE423A01024</t>
+          <t>INE257A01026</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>ADANIENT</t>
+          <t>BHEL</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Trading - Minerals</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="D11" t="n">
-        <v>2587.4</v>
+        <v>229.99</v>
       </c>
       <c r="E11" t="n">
-        <v>3743.9</v>
+        <v>335.35</v>
       </c>
       <c r="F11" t="n">
-        <v>2025</v>
+        <v>191.85</v>
       </c>
       <c r="G11" t="n">
-        <v>30.89024813696947</v>
+        <v>31.41792157447443</v>
       </c>
       <c r="H11" t="n">
-        <v>27.77283950617284</v>
+        <v>45.81068742119223</v>
+      </c>
+      <c r="I11" t="n">
+        <v>19.88011467292157</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>INE257A01026</t>
+          <t>INE021A01026</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>BHEL</t>
+          <t>ASIANPAINT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Paints</t>
         </is>
       </c>
       <c r="D12" t="n">
-        <v>232.63</v>
+        <v>2333.8</v>
       </c>
       <c r="E12" t="n">
-        <v>335.35</v>
+        <v>3401.25</v>
       </c>
       <c r="F12" t="n">
-        <v>191.85</v>
+        <v>2256.5</v>
       </c>
       <c r="G12" t="n">
-        <v>30.63068435962428</v>
+        <v>31.3840499816244</v>
       </c>
       <c r="H12" t="n">
-        <v>21.25618973156111</v>
+        <v>45.73870940097693</v>
+      </c>
+      <c r="I12" t="n">
+        <v>3.425659206736098</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>INE848E01016</t>
+          <t>INE335Y01020</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>NHPC</t>
+          <t>IRCTC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Power Generation</t>
+          <t>Tour Travel Related Services</t>
         </is>
       </c>
       <c r="D13" t="n">
-        <v>83.16</v>
+        <v>795.2</v>
       </c>
       <c r="E13" t="n">
-        <v>118.4</v>
+        <v>1138.9</v>
       </c>
       <c r="F13" t="n">
-        <v>67</v>
+        <v>765.1</v>
       </c>
       <c r="G13" t="n">
-        <v>29.76351351351352</v>
+        <v>30.17824216349109</v>
       </c>
       <c r="H13" t="n">
-        <v>24.11940298507462</v>
+        <v>43.2218309859155</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.934126258005488</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>INE335Y01020</t>
+          <t>INE848E01016</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>IRCTC</t>
+          <t>NHPC</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Tour Travel Related Services</t>
+          <t>Power Generation</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>800.6</v>
+        <v>82.73</v>
       </c>
       <c r="E14" t="n">
-        <v>1138.9</v>
+        <v>118.4</v>
       </c>
       <c r="F14" t="n">
-        <v>765.1</v>
+        <v>67</v>
       </c>
       <c r="G14" t="n">
-        <v>29.70410044780051</v>
+        <v>30.12668918918919</v>
       </c>
       <c r="H14" t="n">
-        <v>4.639916350803808</v>
+        <v>43.11616100568114</v>
+      </c>
+      <c r="I14" t="n">
+        <v>23.47761194029852</v>
       </c>
     </row>
     <row r="15">
@@ -908,7 +952,7 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>138.67</v>
+        <v>138.05</v>
       </c>
       <c r="E15" t="n">
         <v>196.8</v>
@@ -917,10 +961,13 @@
         <v>128.5</v>
       </c>
       <c r="G15" t="n">
-        <v>29.53760162601628</v>
+        <v>29.85264227642276</v>
       </c>
       <c r="H15" t="n">
-        <v>7.914396887159514</v>
+        <v>42.55704454907643</v>
+      </c>
+      <c r="I15" t="n">
+        <v>7.43190661478601</v>
       </c>
     </row>
     <row r="16">
@@ -940,7 +987,7 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>9043.85</v>
+        <v>8965</v>
       </c>
       <c r="E16" t="n">
         <v>12774</v>
@@ -949,74 +996,83 @@
         <v>6604</v>
       </c>
       <c r="G16" t="n">
-        <v>29.20111163300454</v>
+        <v>29.81838108658213</v>
       </c>
       <c r="H16" t="n">
-        <v>36.94503331314356</v>
+        <v>42.48745119910764</v>
+      </c>
+      <c r="I16" t="n">
+        <v>35.75105996365839</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>INE102D01028</t>
+          <t>INE692A01016</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>GODREJCP</t>
+          <t>UNIONBANK</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Personal Care</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>1093.5</v>
+        <v>124</v>
       </c>
       <c r="E17" t="n">
-        <v>1541.85</v>
+        <v>172.5</v>
       </c>
       <c r="F17" t="n">
-        <v>1055.05</v>
+        <v>106.68</v>
       </c>
       <c r="G17" t="n">
-        <v>29.07870415410059</v>
+        <v>28.11594202898551</v>
       </c>
       <c r="H17" t="n">
-        <v>3.644377043742009</v>
+        <v>39.11290322580645</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.23547056617922</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>INE692A01016</t>
+          <t>INE102D01028</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>UNIONBANK</t>
+          <t>GODREJCP</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Personal Care</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>124.59</v>
+        <v>1115</v>
       </c>
       <c r="E18" t="n">
-        <v>172.5</v>
+        <v>1541.85</v>
       </c>
       <c r="F18" t="n">
-        <v>106.68</v>
+        <v>1055.05</v>
       </c>
       <c r="G18" t="n">
-        <v>27.77391304347826</v>
+        <v>27.68427538346791</v>
       </c>
       <c r="H18" t="n">
-        <v>16.78852643419573</v>
+        <v>38.28251121076232</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.682195156627645</v>
       </c>
     </row>
     <row r="19">
@@ -1036,7 +1092,7 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>394.45</v>
+        <v>394.1</v>
       </c>
       <c r="E19" t="n">
         <v>543.55</v>
@@ -1045,10 +1101,13 @@
         <v>368</v>
       </c>
       <c r="G19" t="n">
-        <v>27.43077913715389</v>
+        <v>27.49517063747584</v>
       </c>
       <c r="H19" t="n">
-        <v>7.187499999999991</v>
+        <v>37.92184724689163</v>
+      </c>
+      <c r="I19" t="n">
+        <v>7.092391304347823</v>
       </c>
     </row>
     <row r="20">
@@ -1068,7 +1127,7 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4049.45</v>
+        <v>4011.9</v>
       </c>
       <c r="E20" t="n">
         <v>5484.85</v>
@@ -1077,10 +1136,13 @@
         <v>3399</v>
       </c>
       <c r="G20" t="n">
-        <v>26.17026901373784</v>
+        <v>26.85488208428673</v>
       </c>
       <c r="H20" t="n">
-        <v>19.13651073845248</v>
+        <v>36.71452429023656</v>
+      </c>
+      <c r="I20" t="n">
+        <v>18.03177405119154</v>
       </c>
     </row>
     <row r="21">
@@ -1100,7 +1162,7 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>978.85</v>
+        <v>971.75</v>
       </c>
       <c r="E21" t="n">
         <v>1324.3</v>
@@ -1109,330 +1171,398 @@
         <v>686</v>
       </c>
       <c r="G21" t="n">
-        <v>26.08547912104508</v>
+        <v>26.62161141735256</v>
       </c>
       <c r="H21" t="n">
-        <v>42.68950437317785</v>
+        <v>36.27990738358631</v>
+      </c>
+      <c r="I21" t="n">
+        <v>41.65451895043732</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>INE0J1Y01017</t>
+          <t>INE775A01035</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>LICI</t>
+          <t>MOTHERSON</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Auto Components &amp; Equipments</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>905.5</v>
+        <v>159.45</v>
       </c>
       <c r="E22" t="n">
-        <v>1222</v>
+        <v>216.99</v>
       </c>
       <c r="F22" t="n">
-        <v>819.3</v>
+        <v>101.35</v>
       </c>
       <c r="G22" t="n">
-        <v>25.90016366612111</v>
+        <v>26.51735103000139</v>
       </c>
       <c r="H22" t="n">
-        <v>10.52117661418284</v>
+        <v>36.08654750705551</v>
+      </c>
+      <c r="I22" t="n">
+        <v>57.32609768130241</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>INE775A01035</t>
+          <t>INE742F01042</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>MOTHERSON</t>
+          <t>ADANIPORTS</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Auto Components &amp; Equipments</t>
+          <t>Port &amp; Port services</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>160.83</v>
+        <v>1197.8</v>
       </c>
       <c r="E23" t="n">
-        <v>216.99</v>
+        <v>1621.4</v>
       </c>
       <c r="F23" t="n">
-        <v>101.35</v>
+        <v>995.65</v>
       </c>
       <c r="G23" t="n">
-        <v>25.88137702198258</v>
+        <v>26.12557049463427</v>
       </c>
       <c r="H23" t="n">
-        <v>58.68771583621118</v>
+        <v>35.36483553180834</v>
+      </c>
+      <c r="I23" t="n">
+        <v>20.3033194395621</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>INE192A01025</t>
+          <t>INE066F01020</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>TATACONSUM</t>
+          <t>HAL</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Tea &amp; Coffee</t>
+          <t>Aerospace &amp; Defense</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>935</v>
+        <v>4203</v>
       </c>
       <c r="E24" t="n">
-        <v>1256.44</v>
+        <v>5674.75</v>
       </c>
       <c r="F24" t="n">
-        <v>882.9</v>
+        <v>2763</v>
       </c>
       <c r="G24" t="n">
-        <v>25.58339435229697</v>
+        <v>25.93506321864399</v>
       </c>
       <c r="H24" t="n">
-        <v>5.901008041680833</v>
+        <v>35.0166547704021</v>
+      </c>
+      <c r="I24" t="n">
+        <v>52.11726384364821</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>INE160A01022</t>
+          <t>INE117A01022</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>PNB</t>
+          <t>ABB</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Public Sector Bank</t>
+          <t>Heavy Electrical Equipment</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>106.47</v>
+        <v>6782</v>
       </c>
       <c r="E25" t="n">
-        <v>142.9</v>
+        <v>9149.950000000001</v>
       </c>
       <c r="F25" t="n">
-        <v>92.40000000000001</v>
+        <v>4340.3</v>
       </c>
       <c r="G25" t="n">
-        <v>25.49335199440168</v>
+        <v>25.87937639003492</v>
       </c>
       <c r="H25" t="n">
-        <v>15.22727272727271</v>
+        <v>34.91521675022118</v>
+      </c>
+      <c r="I25" t="n">
+        <v>56.25647996682257</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>INE213A01029</t>
+          <t>INE0J1Y01017</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>ONGC</t>
+          <t>LICI</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Oil Exploration &amp; Production</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>257.31</v>
+        <v>908</v>
       </c>
       <c r="E26" t="n">
-        <v>345</v>
+        <v>1222</v>
       </c>
       <c r="F26" t="n">
-        <v>204.5</v>
+        <v>819.3</v>
       </c>
       <c r="G26" t="n">
-        <v>25.41739130434782</v>
+        <v>25.69558101472995</v>
       </c>
       <c r="H26" t="n">
-        <v>25.82396088019561</v>
+        <v>34.58149779735682</v>
+      </c>
+      <c r="I26" t="n">
+        <v>10.82631514707677</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>INE216A01030</t>
+          <t>INE192A01025</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>BRITANNIA</t>
+          <t>TATACONSUM</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Packaged Foods</t>
+          <t>Tea &amp; Coffee</t>
         </is>
       </c>
       <c r="D27" t="n">
-        <v>4835</v>
+        <v>936</v>
       </c>
       <c r="E27" t="n">
-        <v>6469.9</v>
+        <v>1256.44</v>
       </c>
       <c r="F27" t="n">
-        <v>4641</v>
+        <v>882.9</v>
       </c>
       <c r="G27" t="n">
-        <v>25.26932410083618</v>
+        <v>25.50380439973258</v>
       </c>
       <c r="H27" t="n">
-        <v>4.180133591898305</v>
+        <v>34.23504273504274</v>
+      </c>
+      <c r="I27" t="n">
+        <v>6.014271151885842</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>INE117A01022</t>
+          <t>INE160A01022</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>ABB</t>
+          <t>PNB</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Heavy Electrical Equipment</t>
+          <t>Public Sector Bank</t>
         </is>
       </c>
       <c r="D28" t="n">
-        <v>6840.2</v>
+        <v>106.53</v>
       </c>
       <c r="E28" t="n">
-        <v>9149.950000000001</v>
+        <v>142.9</v>
       </c>
       <c r="F28" t="n">
-        <v>4340.3</v>
+        <v>92.40000000000001</v>
       </c>
       <c r="G28" t="n">
-        <v>25.24330734047728</v>
+        <v>25.45136459062282</v>
       </c>
       <c r="H28" t="n">
-        <v>57.59740110130635</v>
+        <v>34.14061766638505</v>
+      </c>
+      <c r="I28" t="n">
+        <v>15.29220779220779</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>INE123W01016</t>
+          <t>INE216A01030</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>SBILIFE</t>
+          <t>BRITANNIA</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Life Insurance</t>
+          <t>Packaged Foods</t>
         </is>
       </c>
       <c r="D29" t="n">
-        <v>1448.5</v>
+        <v>4839.85</v>
       </c>
       <c r="E29" t="n">
-        <v>1936</v>
+        <v>6469.9</v>
       </c>
       <c r="F29" t="n">
-        <v>1307.7</v>
+        <v>4641</v>
       </c>
       <c r="G29" t="n">
-        <v>25.18078512396694</v>
+        <v>25.19436158209554</v>
       </c>
       <c r="H29" t="n">
-        <v>10.76699548826183</v>
+        <v>33.67976280256617</v>
+      </c>
+      <c r="I29" t="n">
+        <v>4.284636931695762</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>INE066F01020</t>
+          <t>INE123W01016</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>HAL</t>
+          <t>SBILIFE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Aerospace &amp; Defense</t>
+          <t>Life Insurance</t>
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4248</v>
+        <v>1450</v>
       </c>
       <c r="E30" t="n">
-        <v>5674.75</v>
+        <v>1936</v>
       </c>
       <c r="F30" t="n">
-        <v>2763</v>
+        <v>1307.7</v>
       </c>
       <c r="G30" t="n">
-        <v>25.14207674346888</v>
+        <v>25.10330578512396</v>
       </c>
       <c r="H30" t="n">
-        <v>53.74592833876222</v>
+        <v>33.51724137931033</v>
+      </c>
+      <c r="I30" t="n">
+        <v>10.88170069587826</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>INE742F01042</t>
+          <t>INE081A01020</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>ADANIPORTS</t>
+          <t>TATASTEEL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Port &amp; Port services</t>
+          <t>Iron &amp; Steel</t>
         </is>
       </c>
       <c r="D31" t="n">
-        <v>1216</v>
+        <v>138.33</v>
       </c>
       <c r="E31" t="n">
-        <v>1621.4</v>
+        <v>184.6</v>
       </c>
       <c r="F31" t="n">
-        <v>995.65</v>
+        <v>128.2</v>
       </c>
       <c r="G31" t="n">
-        <v>25.00308375477982</v>
+        <v>25.06500541711808</v>
       </c>
       <c r="H31" t="n">
-        <v>22.13127102897605</v>
+        <v>33.44899877105472</v>
+      </c>
+      <c r="I31" t="n">
+        <v>7.901716068642761</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>INE213A01029</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>ONGC</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Oil Exploration &amp; Production</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>258.65</v>
+      </c>
+      <c r="E32" t="n">
+        <v>345</v>
+      </c>
+      <c r="F32" t="n">
+        <v>204.5</v>
+      </c>
+      <c r="G32" t="n">
+        <v>25.02898550724638</v>
+      </c>
+      <c r="H32" t="n">
+        <v>33.38488304658807</v>
+      </c>
+      <c r="I32" t="n">
+        <v>26.47921760391196</v>
       </c>
     </row>
   </sheetData>
